--- a/biology/Zoologie/Dicrostonyx_hudsonius/Dicrostonyx_hudsonius.xlsx
+++ b/biology/Zoologie/Dicrostonyx_hudsonius/Dicrostonyx_hudsonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dicrostonyx hudsonius, le Lemming d'Ungava[1],[2] ou Lemming à collerette du Labrador[3] est une espèce de lemmings, des rongeurs de la famille des Cricétidés. L'espèce se rencontre dans le nord de la Péninsule du Labrador.  Des vestiges de la fin de la dernière période glaciaire ont démontré que ce lemming a déjà habité le sud du Québec[4].  Cette espèce est considérée par certains spécialistes comme une sous-espèce du Lemming variable[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicrostonyx hudsonius, le Lemming d'Ungava, ou Lemming à collerette du Labrador est une espèce de lemmings, des rongeurs de la famille des Cricétidés. L'espèce se rencontre dans le nord de la Péninsule du Labrador.  Des vestiges de la fin de la dernière période glaciaire ont démontré que ce lemming a déjà habité le sud du Québec.  Cette espèce est considérée par certains spécialistes comme une sous-espèce du Lemming variable.
 </t>
         </is>
       </c>
